--- a/RecruitmentPortal/Recruiters.xlsx
+++ b/RecruitmentPortal/Recruiters.xlsx
@@ -12,54 +12,33 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>UserId</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
-  </si>
-  <si>
-    <t>Gender</t>
-  </si>
-  <si>
-    <t>ContactNo</t>
   </si>
   <si>
     <t>Email</t>
   </si>
   <si>
-    <t>Password</t>
-  </si>
-  <si>
     <t>CreatedDate</t>
-  </si>
-  <si>
-    <t>IsActive</t>
-  </si>
-  <si>
-    <t>UserRoles</t>
-  </si>
-  <si>
-    <t>PostedJobs</t>
-  </si>
-  <si>
-    <t>JobApplications</t>
   </si>
   <si>
     <t>Javier Bardem</t>
   </si>
   <si>
-    <t>Male</t>
-  </si>
-  <si>
-    <t>7856447788</t>
-  </si>
-  <si>
     <t>javier@gmail.com</t>
   </si>
   <si>
-    <t>Zml4ZWRTYWx0VmFsdWUxMkkSouBK6nSq8UypPMSAIVQZ7P5j</t>
+    <t>James</t>
+  </si>
+  <si>
+    <t>james@gmail.com</t>
+  </si>
+  <si>
+    <t>Vin Diesel</t>
+  </si>
+  <si>
+    <t>vinDiesel@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -106,7 +85,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr codeName=""/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -122,55 +101,38 @@
       <c r="C1" s="0" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="0" t="s">
+    </row>
+    <row r="2">
+      <c r="A2" s="0" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="0" t="s">
+      <c r="B2" s="0" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="0" t="s">
+      <c r="C2" s="0">
+        <v>45457.64918564815</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="0" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="0" t="s">
+      <c r="B3" s="0" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="0" t="s">
+      <c r="C3" s="0">
+        <v>45462.70557668981</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="0" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="0" t="s">
+      <c r="B4" s="0" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="0" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="0">
-        <v>2</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="C2" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="D2" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="0">
-        <v>45457.64918564815</v>
-      </c>
-      <c r="H2" s="0" t="b">
-        <v>1</v>
+      <c r="C4" s="0">
+        <v>45462.713551608795</v>
       </c>
     </row>
   </sheetData>
